--- a/도서정보/샘플-도서목록(2021-04-29).xlsx
+++ b/도서정보/샘플-도서목록(2021-04-29).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
@@ -1529,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2338,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
